--- a/biology/Zoologie/Conus_rosi/Conus_rosi.xlsx
+++ b/biology/Zoologie/Conus_rosi/Conus_rosi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus rosi est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La longueur de la coquille varie entre 13 mm et 23 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente dans la mer des Caraïbes, au large d'Aruba.
 </t>
@@ -576,10 +592,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus rosi a été décrite pour la première fois en 2015 par les malacologistes Edward James Petuch (d) et David P. Berschauer dans « The Festivus »[1],[2].
-Synonymes
-Tenorioconus rosi Petuch &amp; Berschauer, 2015 · non accepté</t>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus rosi a été décrite pour la première fois en 2015 par les malacologistes Edward James Petuch (d) et David P. Berschauer dans « The Festivus »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_rosi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_rosi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tenorioconus rosi Petuch &amp; Berschauer, 2015 · non accepté</t>
         </is>
       </c>
     </row>
